--- a/Content/TableData/Item.xlsx
+++ b/Content/TableData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B88B2D-4F83-4D84-AFFD-38FB151DC61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BA316-D36E-45F8-9C6D-8FD896240524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41760" yWindow="5640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-42600" yWindow="5730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>1 = Fresh, 2 = Refrigeration, 3 = Freezing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathFile</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +488,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H3" sqref="H3:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,6 +554,9 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -573,6 +580,9 @@
       <c r="G4" t="s">
         <v>8</v>
       </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -595,6 +605,9 @@
       </c>
       <c r="G5">
         <v>10000</v>
+      </c>
+      <c r="H5">
+        <v>5006</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -619,6 +632,9 @@
       <c r="G6">
         <v>10000</v>
       </c>
+      <c r="H6">
+        <v>5004</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -642,6 +658,9 @@
       <c r="G7">
         <v>10000</v>
       </c>
+      <c r="H7">
+        <v>5005</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -665,6 +684,9 @@
       <c r="G8">
         <v>10000</v>
       </c>
+      <c r="H8">
+        <v>5008</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -688,6 +710,9 @@
       <c r="G9">
         <v>10000</v>
       </c>
+      <c r="H9">
+        <v>5009</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -711,6 +736,9 @@
       <c r="G10">
         <v>10000</v>
       </c>
+      <c r="H10">
+        <v>5007</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -734,6 +762,9 @@
       <c r="G11">
         <v>10000</v>
       </c>
+      <c r="H11">
+        <v>5001</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -757,6 +788,9 @@
       <c r="G12">
         <v>10000</v>
       </c>
+      <c r="H12">
+        <v>5002</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -780,6 +814,9 @@
       <c r="G13">
         <v>10000</v>
       </c>
+      <c r="H13">
+        <v>5010</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -803,6 +840,9 @@
       <c r="G14">
         <v>10000</v>
       </c>
+      <c r="H14">
+        <v>5011</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -826,6 +866,9 @@
       <c r="G15">
         <v>10000</v>
       </c>
+      <c r="H15">
+        <v>5012</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -848,6 +891,9 @@
       </c>
       <c r="G16">
         <v>10000</v>
+      </c>
+      <c r="H16">
+        <v>5003</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/Item.xlsx
+++ b/Content/TableData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BA316-D36E-45F8-9C6D-8FD896240524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F235FF5-2961-4175-BDE3-715BFAB6FDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42600" yWindow="5730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>StorageType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -115,15 +107,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1 = Fruit, 2 = Fish, 3 = Beverage, 4 = Frozen, 5 = Snack, 6 = FrozenSnack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1 = Fresh, 2 = Refrigeration, 3 = Freezing</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PathFile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TemperatureType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Won</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시재화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_Income</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내에서 구할 수 있는 골드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = Money, 2 = Cash, 3 = Fruit, 4 = Fish, 5 = Beverage, 6 = Frozen, 7 = Snack, 8 = FrozenSnack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeMaxCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -485,22 +513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,135 +537,124 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>10000</v>
-      </c>
-      <c r="H5">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>10000</v>
-      </c>
-      <c r="H6">
-        <v>5004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -644,25 +662,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>10000</v>
-      </c>
-      <c r="H7">
-        <v>5005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -670,25 +676,31 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>5008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+      <c r="J8">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -696,103 +708,127 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>10000</v>
+      </c>
+      <c r="J9">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>10000</v>
+      </c>
+      <c r="J10">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>10000</v>
+      </c>
+      <c r="J11">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>10000</v>
+      </c>
+      <c r="J12">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -800,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -809,90 +845,210 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>10000</v>
+      </c>
+      <c r="J13">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>5011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>10000</v>
+      </c>
+      <c r="J14">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>5012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>10000</v>
+      </c>
+      <c r="J15">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>10000</v>
+      </c>
+      <c r="J16">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>10000</v>
+      </c>
+      <c r="J17">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>10000</v>
+      </c>
+      <c r="J18">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <v>10000</v>
-      </c>
-      <c r="H16">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>10000</v>
+      </c>
+      <c r="J19">
         <v>5003</v>
       </c>
     </row>

--- a/Content/TableData/Item.xlsx
+++ b/Content/TableData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F235FF5-2961-4175-BDE3-715BFAB6FDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD9B11-D0D8-4FB9-9827-AA9E76376082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35460" yWindow="8100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -123,19 +123,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>캐시재화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Gold_Income</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 내에서 구할 수 있는 골드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -516,7 +508,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A3" sqref="A3:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -567,7 +559,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -582,10 +574,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -639,6 +631,27 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -648,10 +661,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
         <v>24</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -662,10 +693,28 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">

--- a/Content/TableData/Item.xlsx
+++ b/Content/TableData/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD9B11-D0D8-4FB9-9827-AA9E76376082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F7950D-1185-437B-AB84-6DFC0EE1F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35460" yWindow="8100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43725" yWindow="5880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J19"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
